--- a/data/Nabers_4_Star.xlsx
+++ b/data/Nabers_4_Star.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashut\co-perform\Done_Archivede_future-improve\Nabers_calculator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashut\co-perform\Git_repo\Nabers_calculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96592FBF-02B4-415D-A40C-BEAA0D4FD868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC29EBE-76CA-495A-A0CC-25E90B03FA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10392" yWindow="3360" windowWidth="8652" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,29 +33,23 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Target Max Electricity kWh per anum</t>
+    <t>Star Rating</t>
   </si>
   <si>
-    <t>Star Rating</t>
+    <t>emissions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4A4A4A"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,7 +74,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,7 +358,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,10 +374,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -394,7 +388,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="1">
-        <v>73316</v>
+        <v>79915.100000000006</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -408,7 +402,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1">
-        <v>86120</v>
+        <v>93871.3</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -422,7 +416,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="1">
-        <v>98924</v>
+        <v>107827.5</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -436,7 +430,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1">
-        <v>146633</v>
+        <v>159830.20000000001</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -450,7 +444,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1">
-        <v>172240</v>
+        <v>187742.6</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -464,7 +458,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="1">
-        <v>197848</v>
+        <v>215654.9</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -478,7 +472,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="1">
-        <v>219949</v>
+        <v>239745.3</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -492,7 +486,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="1">
-        <v>258361</v>
+        <v>281613.90000000002</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -506,7 +500,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="1">
-        <v>296772</v>
+        <v>323482.40000000002</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -520,7 +514,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="1">
-        <v>293266</v>
+        <v>319660.40000000002</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -534,7 +528,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="1">
-        <v>344481</v>
+        <v>375485.2</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -548,7 +542,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="1">
-        <v>395697</v>
+        <v>431309.9</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -562,7 +556,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="1">
-        <v>366583</v>
+        <v>399575.5</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -576,7 +570,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="1">
-        <v>430602</v>
+        <v>469356.4</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -590,7 +584,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="1">
-        <v>494621</v>
+        <v>539137.4</v>
       </c>
       <c r="D16">
         <v>4</v>
